--- a/test/regression/commands/general/AnalyzeNetworkPointFlow/Data/Network1.xlsx
+++ b/test/regression/commands/general/AnalyzeNetworkPointFlow/Data/Network1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRiv\TSTool_SourceBuild\TSTool\test\regression\commands\general\AnalyzeNetworkPointFlow\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="19155" windowHeight="9525"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>KERSEY GAGE</t>
   </si>
@@ -159,67 +164,16 @@
     <t>NodeDist</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>NodeWeight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +266,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -333,6 +287,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -344,6 +299,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -392,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,10 +606,11 @@
     <col min="2" max="2" width="46.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -665,10 +624,13 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -678,15 +640,16 @@
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="9" t="str">
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="str">
         <f>A3</f>
         <v>0103816</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -696,15 +659,18 @@
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f t="shared" ref="E3:E19" si="0">A4</f>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="str">
+        <f t="shared" ref="F3:F19" si="0">A4</f>
         <v>0100503</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -714,15 +680,18 @@
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9" t="str">
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100507</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -732,15 +701,18 @@
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="9" t="str">
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100513</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -750,15 +722,18 @@
       <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="9" t="str">
+      <c r="D6" s="10">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100511</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -768,15 +743,18 @@
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="9" t="str">
+      <c r="D7" s="10">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100512</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -786,15 +764,18 @@
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="9" t="str">
+      <c r="D8" s="10">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100514</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -804,15 +785,18 @@
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="9" t="str">
+      <c r="D9" s="10">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Instream1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -822,15 +806,18 @@
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="9" t="str">
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>06758500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -840,15 +827,18 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="9" t="str">
+      <c r="D11" s="10">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0102900</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -858,15 +848,18 @@
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="9" t="str">
+      <c r="D12" s="10">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100517</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -876,15 +869,18 @@
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="9" t="str">
+      <c r="D13" s="10">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100515</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -894,15 +890,18 @@
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="9" t="str">
+      <c r="D14" s="10">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>06759500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -912,15 +911,18 @@
       <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="9" t="str">
+      <c r="D15" s="10">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100518</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -930,15 +932,18 @@
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="9" t="str">
+      <c r="D16" s="10">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100519</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -948,15 +953,18 @@
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9" t="str">
+      <c r="D17" s="10">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100687</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -966,15 +974,18 @@
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="9" t="str">
+      <c r="D18" s="10">
+        <v>18</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0100688</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -984,15 +995,18 @@
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="9" t="str">
+      <c r="D19" s="10">
+        <v>19</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>06760000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1002,10 +1016,13 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="D20" s="10">
+        <v>20</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/test/regression/commands/general/AnalyzeNetworkPointFlow/Data/Network1.xlsx
+++ b/test/regression/commands/general/AnalyzeNetworkPointFlow/Data/Network1.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="10">
         <v>3</v>
@@ -870,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10">
         <v>4</v>
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10">
         <v>4</v>
@@ -912,7 +912,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15" s="10">
         <v>4</v>
@@ -933,7 +933,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="10">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
@@ -954,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="10">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E17" s="10">
         <v>5</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="10">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E18" s="10">
         <v>5</v>
@@ -996,7 +996,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="10">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E19" s="10">
         <v>5</v>
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E20" s="10">
         <v>5</v>
